--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2572.985994006297</v>
+        <v>2658.355287810595</v>
       </c>
       <c r="AB2" t="n">
-        <v>3520.472949130387</v>
+        <v>3637.278983140871</v>
       </c>
       <c r="AC2" t="n">
-        <v>3184.483951880068</v>
+        <v>3290.142181942884</v>
       </c>
       <c r="AD2" t="n">
-        <v>2572985.994006297</v>
+        <v>2658355.287810595</v>
       </c>
       <c r="AE2" t="n">
-        <v>3520472.949130388</v>
+        <v>3637278.983140871</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00966612276483e-06</v>
+        <v>1.868146672274642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3184483.951880068</v>
+        <v>3290142.181942884</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>874.5560767531241</v>
+        <v>923.2532278618163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1196.606206904701</v>
+        <v>1263.235797418297</v>
       </c>
       <c r="AC3" t="n">
-        <v>1082.403789965076</v>
+        <v>1142.674345875271</v>
       </c>
       <c r="AD3" t="n">
-        <v>874556.0767531241</v>
+        <v>923253.2278618163</v>
       </c>
       <c r="AE3" t="n">
-        <v>1196606.206904701</v>
+        <v>1263235.797418297</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.899123477265216e-06</v>
+        <v>3.513875650870003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.002083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1082403.789965076</v>
+        <v>1142674.345875271</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.9666953754081</v>
+        <v>714.6637569755493</v>
       </c>
       <c r="AB4" t="n">
-        <v>911.2050129896712</v>
+        <v>977.8344810337184</v>
       </c>
       <c r="AC4" t="n">
-        <v>824.2408854342044</v>
+        <v>884.5113305631729</v>
       </c>
       <c r="AD4" t="n">
-        <v>665966.6953754082</v>
+        <v>714663.7569755493</v>
       </c>
       <c r="AE4" t="n">
-        <v>911205.0129896712</v>
+        <v>977834.4810337183</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.219923333349577e-06</v>
+        <v>4.107439374657307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.845833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>824240.8854342044</v>
+        <v>884511.3305631729</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>592.3053803549949</v>
+        <v>628.8069308500087</v>
       </c>
       <c r="AB5" t="n">
-        <v>810.4183520708759</v>
+        <v>860.36138379291</v>
       </c>
       <c r="AC5" t="n">
-        <v>733.0731619785316</v>
+        <v>778.2497008485001</v>
       </c>
       <c r="AD5" t="n">
-        <v>592305.3803549949</v>
+        <v>628806.9308500087</v>
       </c>
       <c r="AE5" t="n">
-        <v>810418.3520708759</v>
+        <v>860361.38379291</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.388711615973317e-06</v>
+        <v>4.419741888719114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.361458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>733073.1619785316</v>
+        <v>778249.7008485001</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.0326251597935</v>
+        <v>585.5341756548074</v>
       </c>
       <c r="AB6" t="n">
-        <v>751.2106593535771</v>
+        <v>801.1536910756112</v>
       </c>
       <c r="AC6" t="n">
-        <v>679.5161683556532</v>
+        <v>724.6927072256217</v>
       </c>
       <c r="AD6" t="n">
-        <v>549032.6251597935</v>
+        <v>585534.1756548075</v>
       </c>
       <c r="AE6" t="n">
-        <v>751210.6593535771</v>
+        <v>801153.6910756112</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.495207248052255e-06</v>
+        <v>4.616786690158282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.090625</v>
       </c>
       <c r="AH6" t="n">
-        <v>679516.1683556532</v>
+        <v>724692.7072256217</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.8458628166752</v>
+        <v>544.4326646577098</v>
       </c>
       <c r="AB7" t="n">
-        <v>694.8571140840075</v>
+        <v>744.916790458691</v>
       </c>
       <c r="AC7" t="n">
-        <v>628.540926353914</v>
+        <v>673.8229774745947</v>
       </c>
       <c r="AD7" t="n">
-        <v>507845.8628166752</v>
+        <v>544432.6646577098</v>
       </c>
       <c r="AE7" t="n">
-        <v>694857.1140840076</v>
+        <v>744916.7904586911</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.566836501957403e-06</v>
+        <v>4.749319563455039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.919791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>628540.926353914</v>
+        <v>673822.9774745947</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>484.9222358711243</v>
+        <v>521.5090377121588</v>
       </c>
       <c r="AB8" t="n">
-        <v>663.4919963780592</v>
+        <v>713.5516727527427</v>
       </c>
       <c r="AC8" t="n">
-        <v>600.1692514606021</v>
+        <v>645.4513025812828</v>
       </c>
       <c r="AD8" t="n">
-        <v>484922.2358711243</v>
+        <v>521509.0377121588</v>
       </c>
       <c r="AE8" t="n">
-        <v>663491.9963780591</v>
+        <v>713551.6727527427</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.621689046699431e-06</v>
+        <v>4.850811132415487e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.795833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>600169.2514606022</v>
+        <v>645451.3025812828</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>465.1553473714648</v>
+        <v>501.7421492124994</v>
       </c>
       <c r="AB9" t="n">
-        <v>636.446067479251</v>
+        <v>686.5057438539344</v>
       </c>
       <c r="AC9" t="n">
-        <v>575.7045480566966</v>
+        <v>620.9865991773773</v>
       </c>
       <c r="AD9" t="n">
-        <v>465155.3473714648</v>
+        <v>501742.1492124994</v>
       </c>
       <c r="AE9" t="n">
-        <v>636446.0674792511</v>
+        <v>686505.7438539345</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.664141415103501e-06</v>
+        <v>4.929359128605622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.704166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>575704.5480566965</v>
+        <v>620986.5991773773</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>443.9056883606187</v>
+        <v>480.4924902016533</v>
       </c>
       <c r="AB10" t="n">
-        <v>607.3713465518192</v>
+        <v>657.4310229265026</v>
       </c>
       <c r="AC10" t="n">
-        <v>549.4046776879516</v>
+        <v>594.6867288086323</v>
       </c>
       <c r="AD10" t="n">
-        <v>443905.6883606187</v>
+        <v>480492.4902016533</v>
       </c>
       <c r="AE10" t="n">
-        <v>607371.3465518192</v>
+        <v>657431.0229265026</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.710386778622711e-06</v>
+        <v>5.014925158819617e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.60625</v>
       </c>
       <c r="AH10" t="n">
-        <v>549404.6776879516</v>
+        <v>594686.7288086324</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>435.564021504249</v>
+        <v>472.1508233452835</v>
       </c>
       <c r="AB11" t="n">
-        <v>595.957909950565</v>
+        <v>646.0175863252484</v>
       </c>
       <c r="AC11" t="n">
-        <v>539.0805234570623</v>
+        <v>584.362574577743</v>
       </c>
       <c r="AD11" t="n">
-        <v>435564.021504249</v>
+        <v>472150.8233452835</v>
       </c>
       <c r="AE11" t="n">
-        <v>595957.909950565</v>
+        <v>646017.5863252485</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.712866813890302e-06</v>
+        <v>5.019513873373679e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.601041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>539080.5234570623</v>
+        <v>584362.574577743</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>428.9793912111515</v>
+        <v>465.566193052186</v>
       </c>
       <c r="AB12" t="n">
-        <v>586.9485282901626</v>
+        <v>637.0082046648459</v>
       </c>
       <c r="AC12" t="n">
-        <v>530.930984537582</v>
+        <v>576.2130356582628</v>
       </c>
       <c r="AD12" t="n">
-        <v>428979.3912111515</v>
+        <v>465566.193052186</v>
       </c>
       <c r="AE12" t="n">
-        <v>586948.5282901626</v>
+        <v>637008.204664846</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.723954030380712e-06</v>
+        <v>5.040028126674196e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.579166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>530930.984537582</v>
+        <v>576213.0356582628</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>429.3710881926787</v>
+        <v>465.9578900337131</v>
       </c>
       <c r="AB13" t="n">
-        <v>587.4844653807392</v>
+        <v>637.5441417554227</v>
       </c>
       <c r="AC13" t="n">
-        <v>531.4157725444265</v>
+        <v>576.6978236651073</v>
       </c>
       <c r="AD13" t="n">
-        <v>429371.0881926786</v>
+        <v>465957.8900337131</v>
       </c>
       <c r="AE13" t="n">
-        <v>587484.4653807392</v>
+        <v>637544.1417554227</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.729351754198412e-06</v>
+        <v>5.050015328938921e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.567708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>531415.7725444265</v>
+        <v>576697.8236651073</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1540.654989104637</v>
+        <v>1611.237261900941</v>
       </c>
       <c r="AB2" t="n">
-        <v>2107.99212499408</v>
+        <v>2204.565904504092</v>
       </c>
       <c r="AC2" t="n">
-        <v>1906.808315170174</v>
+        <v>1994.165228705901</v>
       </c>
       <c r="AD2" t="n">
-        <v>1540654.989104637</v>
+        <v>1611237.261900941</v>
       </c>
       <c r="AE2" t="n">
-        <v>2107992.12499408</v>
+        <v>2204565.904504092</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332432059632039e-06</v>
+        <v>2.539821143094435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.79895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1906808.315170174</v>
+        <v>1994165.228705901</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.7270183480504</v>
+        <v>731.6112746783272</v>
       </c>
       <c r="AB3" t="n">
-        <v>936.8737145278774</v>
+        <v>1001.022822426372</v>
       </c>
       <c r="AC3" t="n">
-        <v>847.4598021238529</v>
+        <v>905.4866091983534</v>
       </c>
       <c r="AD3" t="n">
-        <v>684727.0183480504</v>
+        <v>731611.2746783271</v>
       </c>
       <c r="AE3" t="n">
-        <v>936873.7145278774</v>
+        <v>1001022.822426372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144205991986862e-06</v>
+        <v>4.087187541180852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.33125</v>
       </c>
       <c r="AH3" t="n">
-        <v>847459.8021238529</v>
+        <v>905486.6091983535</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.8391775398798</v>
+        <v>582.0450625920109</v>
       </c>
       <c r="AB4" t="n">
-        <v>748.2094875519316</v>
+        <v>796.3797326542884</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.8014241785858</v>
+        <v>720.3743686957372</v>
       </c>
       <c r="AD4" t="n">
-        <v>546839.1775398798</v>
+        <v>582045.0625920109</v>
       </c>
       <c r="AE4" t="n">
-        <v>748209.4875519316</v>
+        <v>796379.7326542884</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437283697254211e-06</v>
+        <v>4.645838878805656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="AH4" t="n">
-        <v>676801.4241785858</v>
+        <v>720374.3686957372</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.7162055751473</v>
+        <v>527.9220906272785</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.1560495727796</v>
+        <v>722.3262946751363</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.815542385511</v>
+        <v>653.3884869026625</v>
       </c>
       <c r="AD5" t="n">
-        <v>492716.2055751474</v>
+        <v>527922.0906272786</v>
       </c>
       <c r="AE5" t="n">
-        <v>674156.0495727796</v>
+        <v>722326.2946751363</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.586237196275257e-06</v>
+        <v>4.929767236290559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>609815.542385511</v>
+        <v>653388.4869026626</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>446.2191014218639</v>
+        <v>481.5102378200155</v>
       </c>
       <c r="AB6" t="n">
-        <v>610.5366603627959</v>
+        <v>658.8235501178019</v>
       </c>
       <c r="AC6" t="n">
-        <v>552.2678983913545</v>
+        <v>595.9463551592183</v>
       </c>
       <c r="AD6" t="n">
-        <v>446219.1014218638</v>
+        <v>481510.2378200155</v>
       </c>
       <c r="AE6" t="n">
-        <v>610536.6603627959</v>
+        <v>658823.5501178019</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.680861151580421e-06</v>
+        <v>5.110135098644189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.863541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>552267.8983913545</v>
+        <v>595946.3551592183</v>
       </c>
     </row>
     <row r="7">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>419.7111384208918</v>
+        <v>455.0022748190435</v>
       </c>
       <c r="AB7" t="n">
-        <v>574.2672959360739</v>
+        <v>622.55418569108</v>
       </c>
       <c r="AC7" t="n">
-        <v>519.4600312011461</v>
+        <v>563.1384879690099</v>
       </c>
       <c r="AD7" t="n">
-        <v>419711.1384208918</v>
+        <v>455002.2748190435</v>
       </c>
       <c r="AE7" t="n">
-        <v>574267.2959360739</v>
+        <v>622554.1856910799</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.746358434837903e-06</v>
+        <v>5.234983028885778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.723958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>519460.0312011461</v>
+        <v>563138.4879690099</v>
       </c>
     </row>
     <row r="8">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.86286503656</v>
+        <v>432.1540014347116</v>
       </c>
       <c r="AB8" t="n">
-        <v>543.0052802969501</v>
+        <v>591.2921700519561</v>
       </c>
       <c r="AC8" t="n">
-        <v>491.1816184581059</v>
+        <v>534.8600752259696</v>
       </c>
       <c r="AD8" t="n">
-        <v>396862.86503656</v>
+        <v>432154.0014347116</v>
       </c>
       <c r="AE8" t="n">
-        <v>543005.2802969501</v>
+        <v>591292.1700519561</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.795104108782987e-06</v>
+        <v>5.327899806461891e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.623958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>491181.6184581059</v>
+        <v>534860.0752259695</v>
       </c>
     </row>
     <row r="9">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>390.8129946509571</v>
+        <v>426.1041310491087</v>
       </c>
       <c r="AB9" t="n">
-        <v>534.7275807339238</v>
+        <v>583.0144704889299</v>
       </c>
       <c r="AC9" t="n">
-        <v>483.6939309235505</v>
+        <v>527.3723876914142</v>
       </c>
       <c r="AD9" t="n">
-        <v>390812.9946509571</v>
+        <v>426104.1310491087</v>
       </c>
       <c r="AE9" t="n">
-        <v>534727.5807339238</v>
+        <v>583014.4704889299</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.810950225700119e-06</v>
+        <v>5.358104950875179e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.592708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>483693.9309235504</v>
+        <v>527372.3876914142</v>
       </c>
     </row>
     <row r="10">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>392.6456843455534</v>
+        <v>427.936820743705</v>
       </c>
       <c r="AB10" t="n">
-        <v>537.2351476266334</v>
+        <v>585.5220373816396</v>
       </c>
       <c r="AC10" t="n">
-        <v>485.9621791514122</v>
+        <v>529.640635919276</v>
       </c>
       <c r="AD10" t="n">
-        <v>392645.6843455534</v>
+        <v>427936.820743705</v>
       </c>
       <c r="AE10" t="n">
-        <v>537235.1476266334</v>
+        <v>585522.0373816396</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.810346564103276e-06</v>
+        <v>5.356954278707054e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>485962.1791514122</v>
+        <v>529640.6359192759</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.7356292912236</v>
+        <v>546.4188070553948</v>
       </c>
       <c r="AB2" t="n">
-        <v>690.6015553606655</v>
+        <v>747.6343181096224</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.6915121824134</v>
+        <v>676.2811481005951</v>
       </c>
       <c r="AD2" t="n">
-        <v>504735.6292912236</v>
+        <v>546418.8070553949</v>
       </c>
       <c r="AE2" t="n">
-        <v>690601.5553606655</v>
+        <v>747634.3181096225</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.3410912464e-06</v>
+        <v>4.985911684383427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.492708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>624691.5121824134</v>
+        <v>676281.1481005951</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.0958197709102</v>
+        <v>362.4008958984624</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.0199075272243</v>
+        <v>495.8528937674279</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.7843233702587</v>
+        <v>448.5293895201711</v>
       </c>
       <c r="AD3" t="n">
-        <v>331095.8197709103</v>
+        <v>362400.8958984624</v>
       </c>
       <c r="AE3" t="n">
-        <v>453019.9075272243</v>
+        <v>495852.8937674279</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920217472581097e-06</v>
+        <v>6.219298987116458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.007291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>409784.3233702587</v>
+        <v>448529.3895201711</v>
       </c>
     </row>
     <row r="4">
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.8847067309424</v>
+        <v>336.275034204515</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.1567063132442</v>
+        <v>460.106337206097</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.3438557458219</v>
+        <v>416.1944341464464</v>
       </c>
       <c r="AD4" t="n">
-        <v>304884.7067309424</v>
+        <v>336275.034204515</v>
       </c>
       <c r="AE4" t="n">
-        <v>417156.7063132442</v>
+        <v>460106.337206097</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989092909192922e-06</v>
+        <v>6.365985642195786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.868750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>377343.8557458219</v>
+        <v>416194.4341464465</v>
       </c>
     </row>
     <row r="5">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.3306573155045</v>
+        <v>337.7209847890772</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.1351196938799</v>
+        <v>462.0847505867328</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.1334521301303</v>
+        <v>417.9840305307549</v>
       </c>
       <c r="AD5" t="n">
-        <v>306330.6573155046</v>
+        <v>337720.9847890773</v>
       </c>
       <c r="AE5" t="n">
-        <v>419135.1196938799</v>
+        <v>462084.7505867328</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993134499605353e-06</v>
+        <v>6.374593172078192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.860416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>379133.4521301303</v>
+        <v>417984.0305307549</v>
       </c>
     </row>
   </sheetData>
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>754.3107732340502</v>
+        <v>809.0844126104803</v>
       </c>
       <c r="AB2" t="n">
-        <v>1032.081277781511</v>
+        <v>1107.024987618768</v>
       </c>
       <c r="AC2" t="n">
-        <v>933.580889165214</v>
+        <v>1001.372076519761</v>
       </c>
       <c r="AD2" t="n">
-        <v>754310.7732340503</v>
+        <v>809084.4126104803</v>
       </c>
       <c r="AE2" t="n">
-        <v>1032081.277781511</v>
+        <v>1107024.987618768</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.934358367022874e-06</v>
+        <v>3.927416253990061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.676041666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>933580.889165214</v>
+        <v>1001372.076519761</v>
       </c>
     </row>
     <row r="3">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.3757561161123</v>
+        <v>476.2058929086927</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.6462698759248</v>
+        <v>651.5659113989482</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.748801312353</v>
+        <v>589.3813752935321</v>
       </c>
       <c r="AD3" t="n">
-        <v>443375.7561161122</v>
+        <v>476205.8929086927</v>
       </c>
       <c r="AE3" t="n">
-        <v>606646.2698759248</v>
+        <v>651565.9113989482</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608572555911916e-06</v>
+        <v>5.296304154627055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>548748.801312353</v>
+        <v>589381.375293532</v>
       </c>
     </row>
     <row r="4">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.585730371483</v>
+        <v>396.5011185100841</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.4740365646226</v>
+        <v>542.5103227402954</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.9958127240897</v>
+        <v>490.733898955981</v>
       </c>
       <c r="AD4" t="n">
-        <v>363585.730371483</v>
+        <v>396501.1185100841</v>
       </c>
       <c r="AE4" t="n">
-        <v>497474.0365646225</v>
+        <v>542510.3227402953</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.842332361904269e-06</v>
+        <v>5.770917378957827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.904166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>449995.8127240897</v>
+        <v>490733.898955981</v>
       </c>
     </row>
     <row r="5">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.8676241692369</v>
+        <v>367.783012307838</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.1806567052809</v>
+        <v>503.2169428809536</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.4525378899187</v>
+        <v>455.1906241218098</v>
       </c>
       <c r="AD5" t="n">
-        <v>334867.6241692369</v>
+        <v>367783.012307838</v>
       </c>
       <c r="AE5" t="n">
-        <v>458180.6567052809</v>
+        <v>503216.9428809537</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931905381981284e-06</v>
+        <v>5.952781577943292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.723958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>414452.5378899187</v>
+        <v>455190.6241218098</v>
       </c>
     </row>
     <row r="6">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>335.4001136848583</v>
+        <v>368.3155018234594</v>
       </c>
       <c r="AB6" t="n">
-        <v>458.9092323523336</v>
+        <v>503.9455185280063</v>
       </c>
       <c r="AC6" t="n">
-        <v>415.111579299779</v>
+        <v>455.8496655316702</v>
       </c>
       <c r="AD6" t="n">
-        <v>335400.1136848583</v>
+        <v>368315.5018234594</v>
       </c>
       <c r="AE6" t="n">
-        <v>458909.2323523336</v>
+        <v>503945.5185280063</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.935771843279572e-06</v>
+        <v>5.960631831136909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.716666666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>415111.579299779</v>
+        <v>455849.6655316702</v>
       </c>
     </row>
     <row r="7">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.1992057983989</v>
+        <v>369.1145939369999</v>
       </c>
       <c r="AB7" t="n">
-        <v>460.0025854355359</v>
+        <v>505.0388716112086</v>
       </c>
       <c r="AC7" t="n">
-        <v>416.100584299251</v>
+        <v>456.8386705311423</v>
       </c>
       <c r="AD7" t="n">
-        <v>336199.2057983989</v>
+        <v>369114.5939369999</v>
       </c>
       <c r="AE7" t="n">
-        <v>460002.5854355359</v>
+        <v>505038.8716112086</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.940121612240147e-06</v>
+        <v>5.969463365979728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.707291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>416100.584299251</v>
+        <v>456838.6705311423</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.0118783898388</v>
+        <v>396.1124907232413</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.1111581485696</v>
+        <v>541.9785850572891</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.6219528796738</v>
+        <v>490.2529095711423</v>
       </c>
       <c r="AD2" t="n">
-        <v>356011.8783898389</v>
+        <v>396112.4907232412</v>
       </c>
       <c r="AE2" t="n">
-        <v>487111.1581485696</v>
+        <v>541978.5850572891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.699887377061246e-06</v>
+        <v>6.012121835802386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.747916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>440621.9528796737</v>
+        <v>490252.9095711422</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.5028294169176</v>
+        <v>322.5570429618775</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.2152755223208</v>
+        <v>441.3367763928593</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.0192913321368</v>
+        <v>399.21621387398</v>
       </c>
       <c r="AD3" t="n">
-        <v>292502.8294169176</v>
+        <v>322557.0429618775</v>
       </c>
       <c r="AE3" t="n">
-        <v>400215.2755223208</v>
+        <v>441336.7763928593</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.999136408748218e-06</v>
+        <v>6.678490978839109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>362019.2913321368</v>
+        <v>399216.21387398</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.0979860301491</v>
+        <v>324.152199575109</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.3978391738872</v>
+        <v>443.5193400444257</v>
       </c>
       <c r="AC4" t="n">
-        <v>363.993554172045</v>
+        <v>401.1904767138882</v>
       </c>
       <c r="AD4" t="n">
-        <v>294097.9860301491</v>
+        <v>324152.1995751089</v>
       </c>
       <c r="AE4" t="n">
-        <v>402397.8391738872</v>
+        <v>443519.3400444257</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.003159043306254e-06</v>
+        <v>6.687448600282618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>363993.554172045</v>
+        <v>401190.4767138882</v>
       </c>
     </row>
   </sheetData>
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1744.403201620905</v>
+        <v>1815.581332240435</v>
       </c>
       <c r="AB2" t="n">
-        <v>2386.76941809558</v>
+        <v>2484.158476566723</v>
       </c>
       <c r="AC2" t="n">
-        <v>2158.979494684454</v>
+        <v>2247.073878101514</v>
       </c>
       <c r="AD2" t="n">
-        <v>1744403.201620905</v>
+        <v>1815581.332240435</v>
       </c>
       <c r="AE2" t="n">
-        <v>2386769.41809558</v>
+        <v>2484158.476566724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247178646907986e-06</v>
+        <v>2.358120073855798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2158979.494684455</v>
+        <v>2247073.878101514</v>
       </c>
     </row>
     <row r="3">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>726.8505408283734</v>
+        <v>774.1888699381486</v>
       </c>
       <c r="AB3" t="n">
-        <v>994.5089763441108</v>
+        <v>1059.279366651792</v>
       </c>
       <c r="AC3" t="n">
-        <v>899.594435443943</v>
+        <v>958.1832306064731</v>
       </c>
       <c r="AD3" t="n">
-        <v>726850.5408283734</v>
+        <v>774188.8699381487</v>
       </c>
       <c r="AE3" t="n">
-        <v>994508.9763441108</v>
+        <v>1059279.366651792</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.079329023619346e-06</v>
+        <v>3.931519772972438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.492708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>899594.435443943</v>
+        <v>958183.2306064731</v>
       </c>
     </row>
     <row r="4">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>576.3870734847899</v>
+        <v>612.1041053221371</v>
       </c>
       <c r="AB4" t="n">
-        <v>788.6382223449261</v>
+        <v>837.5078410290198</v>
       </c>
       <c r="AC4" t="n">
-        <v>713.3716972650224</v>
+        <v>757.5772681308471</v>
       </c>
       <c r="AD4" t="n">
-        <v>576387.0734847899</v>
+        <v>612104.1053221371</v>
       </c>
       <c r="AE4" t="n">
-        <v>788638.2223449261</v>
+        <v>837507.8410290198</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37859805737194e-06</v>
+        <v>4.497366789135701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.550000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>713371.6972650223</v>
+        <v>757577.268130847</v>
       </c>
     </row>
     <row r="5">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.4993538519147</v>
+        <v>552.0457934886697</v>
       </c>
       <c r="AB5" t="n">
-        <v>706.6972022835031</v>
+        <v>755.33340919275</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.2510131533177</v>
+        <v>683.2454487364914</v>
       </c>
       <c r="AD5" t="n">
-        <v>516499.3538519148</v>
+        <v>552045.7934886697</v>
       </c>
       <c r="AE5" t="n">
-        <v>706697.2022835031</v>
+        <v>755333.40919275</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.536533139652169e-06</v>
+        <v>4.795984704712116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.141666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>639251.0131533176</v>
+        <v>683245.4487364914</v>
       </c>
     </row>
     <row r="6">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.7799839119488</v>
+        <v>503.4116748947243</v>
       </c>
       <c r="AB6" t="n">
-        <v>640.0372109847332</v>
+        <v>688.7900625466294</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.952957866217</v>
+        <v>623.0529057001028</v>
       </c>
       <c r="AD6" t="n">
-        <v>467779.9839119487</v>
+        <v>503411.6748947243</v>
       </c>
       <c r="AE6" t="n">
-        <v>640037.2109847332</v>
+        <v>688790.0625466295</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635990364762352e-06</v>
+        <v>4.984034812532491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.910416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>578952.957866217</v>
+        <v>623052.9057001028</v>
       </c>
     </row>
     <row r="7">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>441.374026200097</v>
+        <v>477.0057171828726</v>
       </c>
       <c r="AB7" t="n">
-        <v>603.9074146947416</v>
+        <v>652.6602662566379</v>
       </c>
       <c r="AC7" t="n">
-        <v>546.2713386256546</v>
+        <v>590.3712864595403</v>
       </c>
       <c r="AD7" t="n">
-        <v>441374.0262000971</v>
+        <v>477005.7171828726</v>
       </c>
       <c r="AE7" t="n">
-        <v>603907.4146947416</v>
+        <v>652660.2662566379</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.700151491938695e-06</v>
+        <v>5.10534834073541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.769791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>546271.3386256546</v>
+        <v>590371.2864595404</v>
       </c>
     </row>
     <row r="8">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>418.7733920485213</v>
+        <v>454.4050830312968</v>
       </c>
       <c r="AB8" t="n">
-        <v>572.9842299789465</v>
+        <v>621.7370815408427</v>
       </c>
       <c r="AC8" t="n">
-        <v>518.2994192581726</v>
+        <v>562.3993670920586</v>
       </c>
       <c r="AD8" t="n">
-        <v>418773.3920485213</v>
+        <v>454405.0830312968</v>
       </c>
       <c r="AE8" t="n">
-        <v>572984.2299789465</v>
+        <v>621737.0815408428</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752198280417407e-06</v>
+        <v>5.203756517459456e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.660416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>518299.4192581726</v>
+        <v>562399.3670920585</v>
       </c>
     </row>
     <row r="9">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>400.1267365855892</v>
+        <v>435.7584275683649</v>
       </c>
       <c r="AB9" t="n">
-        <v>547.4710533421825</v>
+        <v>596.2239049040787</v>
       </c>
       <c r="AC9" t="n">
-        <v>495.221184391653</v>
+        <v>539.3211322255388</v>
       </c>
       <c r="AD9" t="n">
-        <v>400126.7365855892</v>
+        <v>435758.4275683649</v>
       </c>
       <c r="AE9" t="n">
-        <v>547471.0533421824</v>
+        <v>596223.9049040787</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.792280289935495e-06</v>
+        <v>5.279542124821652e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.579166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>495221.184391653</v>
+        <v>539321.1322255388</v>
       </c>
     </row>
     <row r="10">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>396.7454450958713</v>
+        <v>432.3771360786469</v>
       </c>
       <c r="AB10" t="n">
-        <v>542.8446211538977</v>
+        <v>591.597472715794</v>
       </c>
       <c r="AC10" t="n">
-        <v>491.0362923981799</v>
+        <v>535.1362402320658</v>
       </c>
       <c r="AD10" t="n">
-        <v>396745.4450958713</v>
+        <v>432377.1360786469</v>
       </c>
       <c r="AE10" t="n">
-        <v>542844.6211538977</v>
+        <v>591597.472715794</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.801852113103994e-06</v>
+        <v>5.297640180311131e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.560416666666668</v>
       </c>
       <c r="AH10" t="n">
-        <v>491036.2923981799</v>
+        <v>535136.2402320658</v>
       </c>
     </row>
     <row r="11">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>397.2173776796977</v>
+        <v>432.8490686624733</v>
       </c>
       <c r="AB11" t="n">
-        <v>543.4903401352851</v>
+        <v>592.2431916971816</v>
       </c>
       <c r="AC11" t="n">
-        <v>491.620384866256</v>
+        <v>535.720332700142</v>
       </c>
       <c r="AD11" t="n">
-        <v>397217.3776796978</v>
+        <v>432849.0686624732</v>
       </c>
       <c r="AE11" t="n">
-        <v>543490.3401352852</v>
+        <v>592243.1916971816</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.806787584425251e-06</v>
+        <v>5.306971990172894e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.55</v>
       </c>
       <c r="AH11" t="n">
-        <v>491620.384866256</v>
+        <v>535720.3327001419</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.4822423786293</v>
+        <v>319.7957579870051</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.450619194526</v>
+        <v>437.5586644709433</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.5184899240471</v>
+        <v>395.7986796512783</v>
       </c>
       <c r="AD2" t="n">
-        <v>290482.2423786293</v>
+        <v>319795.7579870051</v>
       </c>
       <c r="AE2" t="n">
-        <v>397450.619194526</v>
+        <v>437558.6644709433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.915154204945728e-06</v>
+        <v>6.68318559608829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>359518.4899240471</v>
+        <v>395798.6796512783</v>
       </c>
     </row>
     <row r="3">
@@ -9793,28 +9793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.3073563481543</v>
+        <v>310.6208719565301</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.8971353602255</v>
+        <v>425.0051806366429</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.1630929679671</v>
+        <v>384.4432826951983</v>
       </c>
       <c r="AD3" t="n">
-        <v>281307.3563481543</v>
+        <v>310620.8719565301</v>
       </c>
       <c r="AE3" t="n">
-        <v>384897.1353602256</v>
+        <v>425005.1806366429</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.979768355371553e-06</v>
+        <v>6.831317848816716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.257291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>348163.0929679672</v>
+        <v>384443.2826951983</v>
       </c>
     </row>
   </sheetData>
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1089.103198904655</v>
+        <v>1145.99440089192</v>
       </c>
       <c r="AB2" t="n">
-        <v>1490.159044583439</v>
+        <v>1568.000097005109</v>
       </c>
       <c r="AC2" t="n">
-        <v>1347.94035681975</v>
+        <v>1418.352368448898</v>
       </c>
       <c r="AD2" t="n">
-        <v>1089103.198904655</v>
+        <v>1145994.40089192</v>
       </c>
       <c r="AE2" t="n">
-        <v>1490159.044583439</v>
+        <v>1568000.097005109</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609162136187691e-06</v>
+        <v>3.153935548413066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.065625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1347940.35681975</v>
+        <v>1418352.368448898</v>
       </c>
     </row>
     <row r="3">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.2403364566184</v>
+        <v>599.7361582686748</v>
       </c>
       <c r="AB3" t="n">
-        <v>758.3360796979002</v>
+        <v>820.5854702351578</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.9615485829046</v>
+        <v>742.2699446548543</v>
       </c>
       <c r="AD3" t="n">
-        <v>554240.3364566184</v>
+        <v>599736.1582686747</v>
       </c>
       <c r="AE3" t="n">
-        <v>758336.0796979002</v>
+        <v>820585.4702351578</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358466642351425e-06</v>
+        <v>4.622562025155028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.867708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>685961.5485829046</v>
+        <v>742269.9446548542</v>
       </c>
     </row>
     <row r="4">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.028240647029</v>
+        <v>497.1288613009794</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.5356662175523</v>
+        <v>680.1936398094942</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.0719114066404</v>
+        <v>615.2769134838447</v>
       </c>
       <c r="AD4" t="n">
-        <v>463028.240647029</v>
+        <v>497128.8613009794</v>
       </c>
       <c r="AE4" t="n">
-        <v>633535.6662175523</v>
+        <v>680193.6398094943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.619533723872262e-06</v>
+        <v>5.134249897005983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>573071.9114066404</v>
+        <v>615276.9134838447</v>
       </c>
     </row>
     <row r="5">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.6018764667414</v>
+        <v>438.7877484667123</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.5941371568123</v>
+        <v>600.3687554014035</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.7598896808167</v>
+        <v>543.0704040087332</v>
       </c>
       <c r="AD5" t="n">
-        <v>404601.8764667414</v>
+        <v>438787.7484667123</v>
       </c>
       <c r="AE5" t="n">
-        <v>553594.1371568122</v>
+        <v>600368.7554014035</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761962220997387e-06</v>
+        <v>5.413407783018773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.864583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>500759.8896808167</v>
+        <v>543070.4040087332</v>
       </c>
     </row>
     <row r="6">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.4952476012739</v>
+        <v>406.6811196012448</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.6644310985818</v>
+        <v>556.439049343173</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.022773113054</v>
+        <v>503.3332874409705</v>
       </c>
       <c r="AD6" t="n">
-        <v>372495.2476012739</v>
+        <v>406681.1196012448</v>
       </c>
       <c r="AE6" t="n">
-        <v>509664.4310985818</v>
+        <v>556439.049343173</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.845304660363181e-06</v>
+        <v>5.576757812388704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.692708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>461022.773113054</v>
+        <v>503333.2874409705</v>
       </c>
     </row>
     <row r="7">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.8836949853521</v>
+        <v>397.0695669853231</v>
       </c>
       <c r="AB7" t="n">
-        <v>496.5134807777029</v>
+        <v>543.2880990222942</v>
       </c>
       <c r="AC7" t="n">
-        <v>449.1269310333251</v>
+        <v>491.4374453612417</v>
       </c>
       <c r="AD7" t="n">
-        <v>362883.6949853521</v>
+        <v>397069.5669853231</v>
       </c>
       <c r="AE7" t="n">
-        <v>496513.4807777029</v>
+        <v>543288.0990222942</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.870493979723738e-06</v>
+        <v>5.62612853022066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.642708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>449126.9310333251</v>
+        <v>491437.4453612417</v>
       </c>
     </row>
     <row r="8">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>363.6760569868418</v>
+        <v>397.8619289868127</v>
       </c>
       <c r="AB8" t="n">
-        <v>497.5976254246854</v>
+        <v>544.3722436692767</v>
       </c>
       <c r="AC8" t="n">
-        <v>450.1076064368062</v>
+        <v>492.4181207647228</v>
       </c>
       <c r="AD8" t="n">
-        <v>363676.0569868418</v>
+        <v>397861.9289868127</v>
       </c>
       <c r="AE8" t="n">
-        <v>497597.6254246854</v>
+        <v>544372.2436692767</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875158668494212e-06</v>
+        <v>5.635271255745096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>450107.6064368062</v>
+        <v>492418.1207647228</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1375.961065163995</v>
+        <v>1434.190541002569</v>
       </c>
       <c r="AB2" t="n">
-        <v>1882.650632475363</v>
+        <v>1962.32277022087</v>
       </c>
       <c r="AC2" t="n">
-        <v>1702.973098428672</v>
+        <v>1775.041439168295</v>
       </c>
       <c r="AD2" t="n">
-        <v>1375961.065163996</v>
+        <v>1434190.541002569</v>
       </c>
       <c r="AE2" t="n">
-        <v>1882650.632475363</v>
+        <v>1962322.77022087</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419891329374718e-06</v>
+        <v>2.730029434011683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.17604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1702973.098428672</v>
+        <v>1775041.439168295</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>642.5738248317858</v>
+        <v>677.5115461383507</v>
       </c>
       <c r="AB3" t="n">
-        <v>879.1978554912753</v>
+        <v>927.0011871263987</v>
       </c>
       <c r="AC3" t="n">
-        <v>795.2884461251275</v>
+        <v>838.529494881392</v>
       </c>
       <c r="AD3" t="n">
-        <v>642573.8248317859</v>
+        <v>677511.5461383507</v>
       </c>
       <c r="AE3" t="n">
-        <v>879197.8554912753</v>
+        <v>927001.1871263987</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215152352908626e-06</v>
+        <v>4.259080254348697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.164583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>795288.4461251275</v>
+        <v>838529.494881392</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.0786972219367</v>
+        <v>553.9310776739298</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.2263736749657</v>
+        <v>757.9129381878914</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.4433653804022</v>
+        <v>685.578791104728</v>
       </c>
       <c r="AD4" t="n">
-        <v>519078.6972219367</v>
+        <v>553931.0776739299</v>
       </c>
       <c r="AE4" t="n">
-        <v>710226.3736749657</v>
+        <v>757912.9381878914</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49425545542091e-06</v>
+        <v>4.79571264953211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>642443.3653804022</v>
+        <v>685578.791104728</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.4761044757224</v>
+        <v>502.3284849277156</v>
       </c>
       <c r="AB5" t="n">
-        <v>639.6214297338739</v>
+        <v>687.3079942467996</v>
       </c>
       <c r="AC5" t="n">
-        <v>578.576858194387</v>
+        <v>621.7122839187127</v>
       </c>
       <c r="AD5" t="n">
-        <v>467476.1044757224</v>
+        <v>502328.4849277156</v>
       </c>
       <c r="AE5" t="n">
-        <v>639621.4297338739</v>
+        <v>687307.9942467996</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.64203384485154e-06</v>
+        <v>5.07984661423075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.006249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>578576.8581943871</v>
+        <v>621712.2839187128</v>
       </c>
     </row>
     <row r="6">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>422.1484096455511</v>
+        <v>457.0860414435648</v>
       </c>
       <c r="AB6" t="n">
-        <v>577.6020779504704</v>
+        <v>625.4052871160454</v>
       </c>
       <c r="AC6" t="n">
-        <v>522.4765463004848</v>
+        <v>565.7174842755228</v>
       </c>
       <c r="AD6" t="n">
-        <v>422148.4096455511</v>
+        <v>457086.0414435648</v>
       </c>
       <c r="AE6" t="n">
-        <v>577602.0779504704</v>
+        <v>625405.2871160455</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.733900204466664e-06</v>
+        <v>5.256478346924854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.805208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>522476.5463004847</v>
+        <v>565717.4842755228</v>
       </c>
     </row>
     <row r="7">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>395.8887951440318</v>
+        <v>430.8264269420455</v>
       </c>
       <c r="AB7" t="n">
-        <v>541.6725148970623</v>
+        <v>589.4757240626373</v>
       </c>
       <c r="AC7" t="n">
-        <v>489.9760503174354</v>
+        <v>533.2169882924734</v>
       </c>
       <c r="AD7" t="n">
-        <v>395888.7951440318</v>
+        <v>430826.4269420455</v>
       </c>
       <c r="AE7" t="n">
-        <v>541672.5148970623</v>
+        <v>589475.7240626373</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.795601490775329e-06</v>
+        <v>5.375111600226864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>489976.0503174354</v>
+        <v>533216.9882924734</v>
       </c>
     </row>
     <row r="8">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.0756728987488</v>
+        <v>417.0133046967624</v>
       </c>
       <c r="AB8" t="n">
-        <v>522.7727916491212</v>
+        <v>570.5760008146963</v>
       </c>
       <c r="AC8" t="n">
-        <v>472.8800901303497</v>
+        <v>516.1210281053876</v>
       </c>
       <c r="AD8" t="n">
-        <v>382075.6728987488</v>
+        <v>417013.3046967624</v>
       </c>
       <c r="AE8" t="n">
-        <v>522772.7916491213</v>
+        <v>570576.0008146963</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.826223610647037e-06</v>
+        <v>5.433988844458232e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.615624999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>472880.0901303497</v>
+        <v>516121.0281053876</v>
       </c>
     </row>
     <row r="9">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>382.9734112383337</v>
+        <v>417.9110430363475</v>
       </c>
       <c r="AB9" t="n">
-        <v>524.0011168507617</v>
+        <v>571.8043260163366</v>
       </c>
       <c r="AC9" t="n">
-        <v>473.9911856987108</v>
+        <v>517.2321236737488</v>
       </c>
       <c r="AD9" t="n">
-        <v>382973.4112383337</v>
+        <v>417911.0430363474</v>
       </c>
       <c r="AE9" t="n">
-        <v>524001.1168507618</v>
+        <v>571804.3260163367</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.827747099197868e-06</v>
+        <v>5.436918060589146e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.612500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>473991.1856987108</v>
+        <v>517232.1236737488</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2250.39453659162</v>
+        <v>2334.959273321187</v>
       </c>
       <c r="AB2" t="n">
-        <v>3079.089085364927</v>
+        <v>3194.794288891208</v>
       </c>
       <c r="AC2" t="n">
-        <v>2785.225144586255</v>
+        <v>2889.887605881257</v>
       </c>
       <c r="AD2" t="n">
-        <v>2250394.53659162</v>
+        <v>2334959.273321187</v>
       </c>
       <c r="AE2" t="n">
-        <v>3079089.085364927</v>
+        <v>3194794.288891208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.086557126142418e-06</v>
+        <v>2.024173514530578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2785225.144586255</v>
+        <v>2889887.605881257</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>815.0589638117639</v>
+        <v>863.430385569242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1115.199632150961</v>
+        <v>1181.38354539606</v>
       </c>
       <c r="AC3" t="n">
-        <v>1008.766544450986</v>
+        <v>1068.633957905679</v>
       </c>
       <c r="AD3" t="n">
-        <v>815058.9638117639</v>
+        <v>863430.3855692421</v>
       </c>
       <c r="AE3" t="n">
-        <v>1115199.632150961</v>
+        <v>1181383.54539606</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9572439232583e-06</v>
+        <v>3.646196979077276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.826041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1008766.544450986</v>
+        <v>1068633.957905679</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>635.8566034823361</v>
+        <v>684.1426843852427</v>
       </c>
       <c r="AB4" t="n">
-        <v>870.007056898067</v>
+        <v>936.074203020969</v>
       </c>
       <c r="AC4" t="n">
-        <v>786.9748044502882</v>
+        <v>846.7365948730423</v>
       </c>
       <c r="AD4" t="n">
-        <v>635856.6034823362</v>
+        <v>684142.6843852426</v>
       </c>
       <c r="AE4" t="n">
-        <v>870007.056898067</v>
+        <v>936074.2030209689</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270167669967065e-06</v>
+        <v>4.229150185048459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.746874999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>786974.8044502882</v>
+        <v>846736.5948730423</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>567.0046478925118</v>
+        <v>603.1979628645998</v>
       </c>
       <c r="AB5" t="n">
-        <v>775.8007737261672</v>
+        <v>825.3220640073425</v>
       </c>
       <c r="AC5" t="n">
-        <v>701.7594367249656</v>
+        <v>746.554484565273</v>
       </c>
       <c r="AD5" t="n">
-        <v>567004.6478925118</v>
+        <v>603197.9628645999</v>
       </c>
       <c r="AE5" t="n">
-        <v>775800.7737261673</v>
+        <v>825322.0640073426</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435011429394004e-06</v>
+        <v>4.536241606051136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.290624999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>701759.4367249656</v>
+        <v>746554.484565273</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>526.7665708268047</v>
+        <v>562.9598857988927</v>
       </c>
       <c r="AB6" t="n">
-        <v>720.7452615061924</v>
+        <v>770.2665517873678</v>
       </c>
       <c r="AC6" t="n">
-        <v>651.9583453203685</v>
+        <v>696.7533931606757</v>
       </c>
       <c r="AD6" t="n">
-        <v>526766.5708268047</v>
+        <v>562959.8857988927</v>
       </c>
       <c r="AE6" t="n">
-        <v>720745.2615061924</v>
+        <v>770266.5517873678</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538829176187419e-06</v>
+        <v>4.729646194122402e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.033333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>651958.3453203685</v>
+        <v>696753.3931606758</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>485.7132296553557</v>
+        <v>521.9917959734644</v>
       </c>
       <c r="AB7" t="n">
-        <v>664.5742689698278</v>
+        <v>714.2122039036525</v>
       </c>
       <c r="AC7" t="n">
-        <v>601.1482334751913</v>
+        <v>646.048793566211</v>
       </c>
       <c r="AD7" t="n">
-        <v>485713.2296553557</v>
+        <v>521991.7959734644</v>
       </c>
       <c r="AE7" t="n">
-        <v>664574.2689698278</v>
+        <v>714212.2039036525</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.611325138183388e-06</v>
+        <v>4.864700672761403e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.865625000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>601148.2334751913</v>
+        <v>646048.793566211</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>464.0494238059077</v>
+        <v>500.3279901240163</v>
       </c>
       <c r="AB8" t="n">
-        <v>634.9328940669515</v>
+        <v>684.5708290007761</v>
       </c>
       <c r="AC8" t="n">
-        <v>574.3357897911146</v>
+        <v>619.2363498821344</v>
       </c>
       <c r="AD8" t="n">
-        <v>464049.4238059077</v>
+        <v>500327.9901240163</v>
       </c>
       <c r="AE8" t="n">
-        <v>634932.8940669515</v>
+        <v>684570.8290007762</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.662351707782984e-06</v>
+        <v>4.959759301742606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.753125</v>
       </c>
       <c r="AH8" t="n">
-        <v>574335.7897911146</v>
+        <v>619236.3498821344</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>444.8788345474476</v>
+        <v>481.1574008655562</v>
       </c>
       <c r="AB9" t="n">
-        <v>608.7028480968182</v>
+        <v>658.3407830306429</v>
       </c>
       <c r="AC9" t="n">
-        <v>550.6091025942701</v>
+        <v>595.5096626852899</v>
       </c>
       <c r="AD9" t="n">
-        <v>444878.8345474476</v>
+        <v>481157.4008655562</v>
       </c>
       <c r="AE9" t="n">
-        <v>608702.8480968182</v>
+        <v>658340.7830306429</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.700437821691617e-06</v>
+        <v>5.030710843258835e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>550609.1025942701</v>
+        <v>595509.6626852899</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>431.7853002794723</v>
+        <v>468.063866597581</v>
       </c>
       <c r="AB10" t="n">
-        <v>590.7876968654108</v>
+        <v>640.4256317992354</v>
       </c>
       <c r="AC10" t="n">
-        <v>534.4037482523155</v>
+        <v>579.3043083433352</v>
       </c>
       <c r="AD10" t="n">
-        <v>431785.3002794723</v>
+        <v>468063.866597581</v>
       </c>
       <c r="AE10" t="n">
-        <v>590787.6968654108</v>
+        <v>640425.6317992354</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.718966201430952e-06</v>
+        <v>5.065227809401866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>534403.7482523154</v>
+        <v>579304.3083433352</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>418.5510042072405</v>
+        <v>454.8295705253493</v>
       </c>
       <c r="AB11" t="n">
-        <v>572.679949123447</v>
+        <v>622.3178840572717</v>
       </c>
       <c r="AC11" t="n">
-        <v>518.0241785404612</v>
+        <v>562.924738631481</v>
       </c>
       <c r="AD11" t="n">
-        <v>418551.0042072405</v>
+        <v>454829.5705253492</v>
       </c>
       <c r="AE11" t="n">
-        <v>572679.9491234471</v>
+        <v>622317.8840572718</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.746758771039953e-06</v>
+        <v>5.117003258616411e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.576041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>518024.1785404612</v>
+        <v>562924.738631481</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>420.0992722864897</v>
+        <v>456.3778386045983</v>
       </c>
       <c r="AB12" t="n">
-        <v>574.7983578142428</v>
+        <v>624.4362927480676</v>
       </c>
       <c r="AC12" t="n">
-        <v>519.9404092790126</v>
+        <v>564.8409693700323</v>
       </c>
       <c r="AD12" t="n">
-        <v>420099.2722864897</v>
+        <v>456377.8386045983</v>
       </c>
       <c r="AE12" t="n">
-        <v>574798.3578142427</v>
+        <v>624436.2927480675</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.746023517875695e-06</v>
+        <v>5.11563353773772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>519940.4092790126</v>
+        <v>564840.9693700323</v>
       </c>
     </row>
   </sheetData>
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.7796302487353</v>
+        <v>903.2616537137225</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.020176789699</v>
+        <v>1235.88244370287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.877900268065</v>
+        <v>1117.931557847771</v>
       </c>
       <c r="AD2" t="n">
-        <v>858779.6302487353</v>
+        <v>903261.6537137225</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175020.176789699</v>
+        <v>1235882.44370287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819628994600325e-06</v>
+        <v>3.647441506692808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.107291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062877.900268065</v>
+        <v>1117931.557847771</v>
       </c>
     </row>
     <row r="3">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.5926229612873</v>
+        <v>514.039414283186</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.5680289857795</v>
+        <v>703.3314044406941</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.8106592019011</v>
+        <v>636.2064423326995</v>
       </c>
       <c r="AD3" t="n">
-        <v>480592.6229612873</v>
+        <v>514039.414283186</v>
       </c>
       <c r="AE3" t="n">
-        <v>657568.0289857795</v>
+        <v>703331.4044406941</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.518335983959009e-06</v>
+        <v>5.047997818757401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.580208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>594810.6592019011</v>
+        <v>636206.4423326994</v>
       </c>
     </row>
     <row r="4">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.7355637480106</v>
+        <v>437.0468159953036</v>
       </c>
       <c r="AB4" t="n">
-        <v>537.3581245902748</v>
+        <v>597.9867347895021</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.0734193662429</v>
+        <v>540.9157201008447</v>
       </c>
       <c r="AD4" t="n">
-        <v>392735.5637480106</v>
+        <v>437046.8159953036</v>
       </c>
       <c r="AE4" t="n">
-        <v>537358.1245902748</v>
+        <v>597986.7347895021</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.766351511374807e-06</v>
+        <v>5.54514428745246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.990625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>486073.4193662429</v>
+        <v>540915.7201008447</v>
       </c>
     </row>
     <row r="5">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.188155036053</v>
+        <v>385.5496055033801</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.879371165151</v>
+        <v>527.525979497868</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.8894803030934</v>
+        <v>477.179640401953</v>
       </c>
       <c r="AD5" t="n">
-        <v>352188.155036053</v>
+        <v>385549.6055033801</v>
       </c>
       <c r="AE5" t="n">
-        <v>481879.371165151</v>
+        <v>527525.979497868</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.889802473064775e-06</v>
+        <v>5.792601413627807e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>435889.4803030934</v>
+        <v>477179.640401953</v>
       </c>
     </row>
     <row r="6">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.9544958012928</v>
+        <v>377.3159462686199</v>
       </c>
       <c r="AB6" t="n">
-        <v>470.6137153567431</v>
+        <v>516.2603236894601</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.6990028735926</v>
+        <v>466.9891629724524</v>
       </c>
       <c r="AD6" t="n">
-        <v>343954.4958012928</v>
+        <v>377315.9462686199</v>
       </c>
       <c r="AE6" t="n">
-        <v>470613.7153567431</v>
+        <v>516260.3236894601</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.914301761853764e-06</v>
+        <v>5.841710173203843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.686458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>425699.0028735927</v>
+        <v>466989.1629724524</v>
       </c>
     </row>
     <row r="7">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.9982593148895</v>
+        <v>378.3597097822166</v>
       </c>
       <c r="AB7" t="n">
-        <v>472.0418386436426</v>
+        <v>517.6884469763595</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.990828078374</v>
+        <v>468.2809881772337</v>
       </c>
       <c r="AD7" t="n">
-        <v>344998.2593148895</v>
+        <v>378359.7097822166</v>
       </c>
       <c r="AE7" t="n">
-        <v>472041.8386436425</v>
+        <v>517688.4469763595</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.918915264288054e-06</v>
+        <v>5.850957926630499e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>426990.828078374</v>
+        <v>468280.9881772337</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>578.7661729803848</v>
+        <v>621.3471690078729</v>
       </c>
       <c r="AB2" t="n">
-        <v>791.8934112332607</v>
+        <v>850.1546085390341</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.316215494541</v>
+        <v>769.0170458995551</v>
       </c>
       <c r="AD2" t="n">
-        <v>578766.1729803848</v>
+        <v>621347.1690078729</v>
       </c>
       <c r="AE2" t="n">
-        <v>791893.4112332608</v>
+        <v>850154.6085390341</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192908976506516e-06</v>
+        <v>4.587702718811054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.871874999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>716316.215494541</v>
+        <v>769017.0458995551</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.6112198221043</v>
+        <v>402.4617154966999</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.0866211736825</v>
+        <v>550.6658745003632</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.6909857494082</v>
+        <v>498.1110963024567</v>
       </c>
       <c r="AD3" t="n">
-        <v>370611.2198221043</v>
+        <v>402461.7154966999</v>
       </c>
       <c r="AE3" t="n">
-        <v>507086.6211736826</v>
+        <v>550665.8745003633</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.804232275405673e-06</v>
+        <v>5.866629290993777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>458690.9857494083</v>
+        <v>498111.0963024567</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.0216142446918</v>
+        <v>345.9573612653079</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.6582262654669</v>
+        <v>473.3541242447968</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.6522481797978</v>
+        <v>428.1778709835585</v>
       </c>
       <c r="AD4" t="n">
-        <v>314021.6142446917</v>
+        <v>345957.3612653079</v>
       </c>
       <c r="AE4" t="n">
-        <v>429658.2262654668</v>
+        <v>473354.1242447968</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.976576062571605e-06</v>
+        <v>6.227183271766353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.798958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>388652.2481797978</v>
+        <v>428177.8709835585</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.7134956815673</v>
+        <v>347.6492427021834</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.9731330879411</v>
+        <v>475.669031067271</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.7462235441272</v>
+        <v>430.271846347888</v>
       </c>
       <c r="AD5" t="n">
-        <v>315713.4956815673</v>
+        <v>347649.2427021834</v>
       </c>
       <c r="AE5" t="n">
-        <v>431973.133087941</v>
+        <v>475669.031067271</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97624463221167e-06</v>
+        <v>6.226489898726406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>390746.2235441272</v>
+        <v>430271.8463478879</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>317.0621852325366</v>
+        <v>348.9979322531528</v>
       </c>
       <c r="AB6" t="n">
-        <v>433.818469631561</v>
+        <v>477.514367610891</v>
       </c>
       <c r="AC6" t="n">
-        <v>392.4154437579703</v>
+        <v>431.941066561731</v>
       </c>
       <c r="AD6" t="n">
-        <v>317062.1852325366</v>
+        <v>348997.9322531528</v>
       </c>
       <c r="AE6" t="n">
-        <v>433818.469631561</v>
+        <v>477514.367610891</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.980387511710851e-06</v>
+        <v>6.235157061725746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.791666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>392415.4437579703</v>
+        <v>431941.066561731</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.8430809409639</v>
+        <v>465.639326058197</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.9714872662255</v>
+        <v>637.1082684700707</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.1882435692632</v>
+        <v>576.3035495143572</v>
       </c>
       <c r="AD2" t="n">
-        <v>434843.0809409639</v>
+        <v>465639.326058197</v>
       </c>
       <c r="AE2" t="n">
-        <v>594971.4872662255</v>
+        <v>637108.2684700707</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.506572314246336e-06</v>
+        <v>5.44892668788777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.123958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>538188.2435692633</v>
+        <v>576303.5495143572</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.9263366793975</v>
+        <v>334.8171957818302</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.1629809595539</v>
+        <v>458.1116583608876</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.7811104960621</v>
+        <v>414.3901246506745</v>
       </c>
       <c r="AD3" t="n">
-        <v>293926.3366793975</v>
+        <v>334817.1957818302</v>
       </c>
       <c r="AE3" t="n">
-        <v>402162.9809595539</v>
+        <v>458111.6583608877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994275654010447e-06</v>
+        <v>6.509123407012424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>363781.1104960621</v>
+        <v>414390.1246506745</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.7512037304122</v>
+        <v>335.6420628328449</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.2916004493183</v>
+        <v>459.240277850652</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.8020161257508</v>
+        <v>415.4110302803631</v>
       </c>
       <c r="AD4" t="n">
-        <v>294751.2037304122</v>
+        <v>335642.0628328449</v>
       </c>
       <c r="AE4" t="n">
-        <v>403291.6004493182</v>
+        <v>459240.277850652</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001989766590196e-06</v>
+        <v>6.525892775153237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.947916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364802.0161257508</v>
+        <v>415411.0302803632</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.1224676236986</v>
+        <v>295.744940501392</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.4887448143009</v>
+        <v>404.651274939945</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.6070119758983</v>
+        <v>366.0319251913072</v>
       </c>
       <c r="AD2" t="n">
-        <v>267122.4676236986</v>
+        <v>295744.9405013919</v>
       </c>
       <c r="AE2" t="n">
-        <v>365488.7448143009</v>
+        <v>404651.274939945</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.906138196437706e-06</v>
+        <v>6.912328059951377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.594791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>330607.0119758983</v>
+        <v>366031.9251913072</v>
       </c>
     </row>
     <row r="3">
@@ -27331,28 +27331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.8355400230571</v>
+        <v>298.4580129007504</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.20089016341</v>
+        <v>408.363420289054</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.9648753829172</v>
+        <v>369.389788598326</v>
       </c>
       <c r="AD3" t="n">
-        <v>269835.5400230571</v>
+        <v>298458.0129007504</v>
       </c>
       <c r="AE3" t="n">
-        <v>369200.89016341</v>
+        <v>408363.420289054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.909450034838204e-06</v>
+        <v>6.920205356885795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.587499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>333964.8753829172</v>
+        <v>369389.788598326</v>
       </c>
     </row>
   </sheetData>
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1219.004633937671</v>
+        <v>1288.058830890021</v>
       </c>
       <c r="AB2" t="n">
-        <v>1667.895918842461</v>
+        <v>1762.378917568828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1508.714273254761</v>
+        <v>1594.179947190404</v>
       </c>
       <c r="AD2" t="n">
-        <v>1219004.633937671</v>
+        <v>1288058.830890021</v>
       </c>
       <c r="AE2" t="n">
-        <v>1667895.918842461</v>
+        <v>1762378.917568828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511770145198485e-06</v>
+        <v>2.933708179606581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1508714.273254761</v>
+        <v>1594179.947190404</v>
       </c>
     </row>
     <row r="3">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.1857596676341</v>
+        <v>637.7556180796461</v>
       </c>
       <c r="AB3" t="n">
-        <v>825.305367054887</v>
+        <v>872.6053724487175</v>
       </c>
       <c r="AC3" t="n">
-        <v>746.5393811465254</v>
+        <v>789.3251404115432</v>
       </c>
       <c r="AD3" t="n">
-        <v>603185.7596676341</v>
+        <v>637755.618079646</v>
       </c>
       <c r="AE3" t="n">
-        <v>825305.367054887</v>
+        <v>872605.3724487175</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286350390585678e-06</v>
+        <v>4.436841714073709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>746539.3811465255</v>
+        <v>789325.1404115432</v>
       </c>
     </row>
     <row r="4">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.8965702750885</v>
+        <v>524.3810878325286</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.2981001617089</v>
+        <v>717.4813384333415</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.3257902515669</v>
+        <v>649.0059264846458</v>
       </c>
       <c r="AD4" t="n">
-        <v>489896.5702750885</v>
+        <v>524381.0878325286</v>
       </c>
       <c r="AE4" t="n">
-        <v>670298.1001617089</v>
+        <v>717481.3384333416</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558392081853965e-06</v>
+        <v>4.964759888276705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.264583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>606325.7902515669</v>
+        <v>649005.9264846458</v>
       </c>
     </row>
     <row r="5">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.3669069646268</v>
+        <v>464.9366758680875</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.8469885569422</v>
+        <v>636.1468714812244</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.6482584210061</v>
+        <v>575.4339069047971</v>
       </c>
       <c r="AD5" t="n">
-        <v>430366.9069646267</v>
+        <v>464936.6758680875</v>
       </c>
       <c r="AE5" t="n">
-        <v>588846.9885569422</v>
+        <v>636146.8714812243</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.699644498474037e-06</v>
+        <v>5.23887124795903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>532648.258421006</v>
+        <v>575433.9069047972</v>
       </c>
     </row>
     <row r="6">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>398.1310443787093</v>
+        <v>432.70081328217</v>
       </c>
       <c r="AB6" t="n">
-        <v>544.7404592210028</v>
+        <v>592.0403421452847</v>
       </c>
       <c r="AC6" t="n">
-        <v>492.7511943409858</v>
+        <v>535.536842824777</v>
       </c>
       <c r="AD6" t="n">
-        <v>398131.0443787093</v>
+        <v>432700.81328217</v>
       </c>
       <c r="AE6" t="n">
-        <v>544740.4592210028</v>
+        <v>592040.3421452848</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.789042814439464e-06</v>
+        <v>5.412355670590218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.746875</v>
       </c>
       <c r="AH6" t="n">
-        <v>492751.1943409857</v>
+        <v>535536.842824777</v>
       </c>
     </row>
     <row r="7">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.8698770701436</v>
+        <v>409.4396459736043</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.9135038991478</v>
+        <v>560.2133868234299</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.9617589656365</v>
+        <v>506.7474074494276</v>
       </c>
       <c r="AD7" t="n">
-        <v>374869.8770701436</v>
+        <v>409439.6459736043</v>
       </c>
       <c r="AE7" t="n">
-        <v>512913.5038991479</v>
+        <v>560213.38682343</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.84120465456387e-06</v>
+        <v>5.513579800146109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.641666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>463961.7589656365</v>
+        <v>506747.4074494276</v>
       </c>
     </row>
     <row r="8">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>372.8643846068168</v>
+        <v>407.4341535102776</v>
       </c>
       <c r="AB8" t="n">
-        <v>510.169500634741</v>
+        <v>557.4693835590231</v>
       </c>
       <c r="AC8" t="n">
-        <v>461.4796395215519</v>
+        <v>504.265288005343</v>
       </c>
       <c r="AD8" t="n">
-        <v>372864.3846068168</v>
+        <v>407434.1535102776</v>
       </c>
       <c r="AE8" t="n">
-        <v>510169.500634741</v>
+        <v>557469.383559023</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848282662368361e-06</v>
+        <v>5.527315227755463e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.627083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>461479.6395215518</v>
+        <v>504265.288005343</v>
       </c>
     </row>
     <row r="9">
@@ -28370,28 +28370,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>373.5636257306417</v>
+        <v>408.1333946341023</v>
       </c>
       <c r="AB9" t="n">
-        <v>511.1262331886992</v>
+        <v>558.4261161129814</v>
       </c>
       <c r="AC9" t="n">
-        <v>462.3450628633428</v>
+        <v>505.1307113471341</v>
       </c>
       <c r="AD9" t="n">
-        <v>373563.6257306417</v>
+        <v>408133.3946341023</v>
       </c>
       <c r="AE9" t="n">
-        <v>511126.2331886992</v>
+        <v>558426.1161129813</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.853052624149649e-06</v>
+        <v>5.536571711579158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.617708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>462345.0628633428</v>
+        <v>505130.7113471341</v>
       </c>
     </row>
   </sheetData>
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1977.003261361826</v>
+        <v>2060.740484090105</v>
       </c>
       <c r="AB2" t="n">
-        <v>2705.023081423517</v>
+        <v>2819.59604378589</v>
       </c>
       <c r="AC2" t="n">
-        <v>2446.859475056195</v>
+        <v>2550.497754694865</v>
       </c>
       <c r="AD2" t="n">
-        <v>1977003.261361826</v>
+        <v>2060740.484090105</v>
       </c>
       <c r="AE2" t="n">
-        <v>2705023.081423517</v>
+        <v>2819596.04378589</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165876676502758e-06</v>
+        <v>2.187641936046932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.246875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2446859.475056195</v>
+        <v>2550497.754694865</v>
       </c>
     </row>
     <row r="3">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>770.3149070089959</v>
+        <v>818.262229825494</v>
       </c>
       <c r="AB3" t="n">
-        <v>1053.978839664943</v>
+        <v>1119.582482029069</v>
       </c>
       <c r="AC3" t="n">
-        <v>953.3885784759126</v>
+        <v>1012.731101288096</v>
       </c>
       <c r="AD3" t="n">
-        <v>770314.9070089959</v>
+        <v>818262.229825494</v>
       </c>
       <c r="AE3" t="n">
-        <v>1053978.839664943</v>
+        <v>1119582.482029069</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016819859314577e-06</v>
+        <v>3.78434511180343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.658333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>953388.5784759126</v>
+        <v>1012731.101288096</v>
       </c>
     </row>
     <row r="4">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>605.1114381064081</v>
+        <v>652.9734200683343</v>
       </c>
       <c r="AB4" t="n">
-        <v>827.9401652497544</v>
+        <v>893.4270404916823</v>
       </c>
       <c r="AC4" t="n">
-        <v>748.9227178996372</v>
+        <v>808.1596176798822</v>
       </c>
       <c r="AD4" t="n">
-        <v>605111.4381064081</v>
+        <v>652973.4200683343</v>
       </c>
       <c r="AE4" t="n">
-        <v>827940.1652497544</v>
+        <v>893427.0404916824</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.325081033223929e-06</v>
+        <v>4.362763983104661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.642708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>748922.7178996372</v>
+        <v>808159.6176798822</v>
       </c>
     </row>
     <row r="5">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.2001120329593</v>
+        <v>578.0753527993121</v>
       </c>
       <c r="AB5" t="n">
-        <v>741.8621134642369</v>
+        <v>790.9482005846819</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.0598345652251</v>
+        <v>715.4612144236506</v>
       </c>
       <c r="AD5" t="n">
-        <v>542200.1120329592</v>
+        <v>578075.3527993121</v>
       </c>
       <c r="AE5" t="n">
-        <v>741862.113464237</v>
+        <v>790948.2005846819</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.482844327615247e-06</v>
+        <v>4.658789802760509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.220833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>671059.8345652251</v>
+        <v>715461.2144236506</v>
       </c>
     </row>
     <row r="6">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>492.6853487871271</v>
+        <v>540.4619898944817</v>
       </c>
       <c r="AB6" t="n">
-        <v>674.1138299541047</v>
+        <v>739.4839380738352</v>
       </c>
       <c r="AC6" t="n">
-        <v>609.7773521479869</v>
+        <v>668.908628896293</v>
       </c>
       <c r="AD6" t="n">
-        <v>492685.3487871271</v>
+        <v>540461.9898944817</v>
       </c>
       <c r="AE6" t="n">
-        <v>674113.8299541047</v>
+        <v>739483.9380738352</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581446386609821e-06</v>
+        <v>4.843805940045414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>609777.3521479869</v>
+        <v>668908.628896293</v>
       </c>
     </row>
     <row r="7">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>464.7772918267113</v>
+        <v>500.7377839390846</v>
       </c>
       <c r="AB7" t="n">
-        <v>635.9287952042857</v>
+        <v>685.13152697738</v>
       </c>
       <c r="AC7" t="n">
-        <v>575.2366435216577</v>
+        <v>619.7435356307956</v>
       </c>
       <c r="AD7" t="n">
-        <v>464777.2918267113</v>
+        <v>500737.7839390846</v>
       </c>
       <c r="AE7" t="n">
-        <v>635928.7952042858</v>
+        <v>685131.5269773799</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.651876428748802e-06</v>
+        <v>4.975960323820346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.823958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>575236.6435216577</v>
+        <v>619743.5356307955</v>
       </c>
     </row>
     <row r="8">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>441.5882783190061</v>
+        <v>477.5487704313795</v>
       </c>
       <c r="AB8" t="n">
-        <v>604.2005638959691</v>
+        <v>653.4032956690634</v>
       </c>
       <c r="AC8" t="n">
-        <v>546.5365100785546</v>
+        <v>591.0434021876923</v>
       </c>
       <c r="AD8" t="n">
-        <v>441588.2783190061</v>
+        <v>477548.7704313794</v>
       </c>
       <c r="AE8" t="n">
-        <v>604200.5638959692</v>
+        <v>653403.2956690633</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.704513618136883e-06</v>
+        <v>5.074728336957401e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.710416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>546536.5100785545</v>
+        <v>591043.4021876924</v>
       </c>
     </row>
     <row r="9">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>423.008428367825</v>
+        <v>458.9689204801984</v>
       </c>
       <c r="AB9" t="n">
-        <v>578.7787935076338</v>
+        <v>627.9815252807281</v>
       </c>
       <c r="AC9" t="n">
-        <v>523.540957776403</v>
+        <v>568.0478498855409</v>
       </c>
       <c r="AD9" t="n">
-        <v>423008.428367825</v>
+        <v>458968.9204801984</v>
       </c>
       <c r="AE9" t="n">
-        <v>578778.7935076338</v>
+        <v>627981.5252807281</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.742916525324244e-06</v>
+        <v>5.146787253584154e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.631250000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>523540.9577764031</v>
+        <v>568047.8498855409</v>
       </c>
     </row>
     <row r="10">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>412.0153502421857</v>
+        <v>447.975842354559</v>
       </c>
       <c r="AB10" t="n">
-        <v>563.7375790357555</v>
+        <v>612.9403108088496</v>
       </c>
       <c r="AC10" t="n">
-        <v>509.9352557032437</v>
+        <v>554.4421478123814</v>
       </c>
       <c r="AD10" t="n">
-        <v>412015.3502421857</v>
+        <v>447975.842354559</v>
       </c>
       <c r="AE10" t="n">
-        <v>563737.5790357555</v>
+        <v>612940.3108088496</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.758633545254205e-06</v>
+        <v>5.176278547647612e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>509935.2557032437</v>
+        <v>554442.1478123815</v>
       </c>
     </row>
     <row r="11">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>410.6920871960891</v>
+        <v>446.6525793084625</v>
       </c>
       <c r="AB11" t="n">
-        <v>561.9270321578406</v>
+        <v>611.1297639309348</v>
       </c>
       <c r="AC11" t="n">
-        <v>508.2975048782386</v>
+        <v>552.8043969873764</v>
       </c>
       <c r="AD11" t="n">
-        <v>410692.0871960891</v>
+        <v>446652.5793084624</v>
       </c>
       <c r="AE11" t="n">
-        <v>561927.0321578406</v>
+        <v>611129.7639309348</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.766936876537959e-06</v>
+        <v>5.191858853945289e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.582291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>508297.5048782385</v>
+        <v>552804.3969873764</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.7146889290509</v>
+        <v>299.1848685813923</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.457827546812</v>
+        <v>409.3579362979177</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.151676987973</v>
+        <v>370.2893893951157</v>
       </c>
       <c r="AD2" t="n">
-        <v>262714.6889290509</v>
+        <v>299184.8685813923</v>
       </c>
       <c r="AE2" t="n">
-        <v>359457.827546812</v>
+        <v>409357.9362979177</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722003702234342e-06</v>
+        <v>6.807524687701934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.290624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>325151.676987973</v>
+        <v>370289.3893951157</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.074369694976</v>
+        <v>711.2449062463271</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.0888259777324</v>
+        <v>973.1566586369473</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.849471358142</v>
+        <v>880.279952970585</v>
       </c>
       <c r="AD2" t="n">
-        <v>668074.369694976</v>
+        <v>711244.9062463271</v>
       </c>
       <c r="AE2" t="n">
-        <v>914088.8259777324</v>
+        <v>973156.6586369473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.059209780172102e-06</v>
+        <v>4.240496637105614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.260416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>826849.471358142</v>
+        <v>880279.952970585</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.6268320385793</v>
+        <v>438.9834216155874</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.3647707049357</v>
+        <v>600.6364840361846</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.2660978517159</v>
+        <v>543.3125809983703</v>
       </c>
       <c r="AD3" t="n">
-        <v>406626.8320385793</v>
+        <v>438983.4216155874</v>
       </c>
       <c r="AE3" t="n">
-        <v>556364.7707049358</v>
+        <v>600636.4840361846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7045703710714e-06</v>
+        <v>5.569477026466548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.289583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>503266.0978517159</v>
+        <v>543312.5809983703</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.202338046385</v>
+        <v>365.6441789694138</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.9021387647562</v>
+        <v>500.2904967486543</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.3914785037176</v>
+        <v>452.5434739010842</v>
       </c>
       <c r="AD4" t="n">
-        <v>333202.338046385</v>
+        <v>365644.1789694137</v>
       </c>
       <c r="AE4" t="n">
-        <v>455902.1387647562</v>
+        <v>500290.4967486543</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.927474522533328e-06</v>
+        <v>6.028499858318187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.810416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>412391.4785037176</v>
+        <v>452543.4739010842</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.9916378861978</v>
+        <v>357.4334788092265</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.6678965750619</v>
+        <v>489.05625455896</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.2294166212499</v>
+        <v>442.3814120186164</v>
       </c>
       <c r="AD5" t="n">
-        <v>324991.6378861978</v>
+        <v>357433.4788092265</v>
       </c>
       <c r="AE5" t="n">
-        <v>444667.896575062</v>
+        <v>489056.25455896</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956705176827603e-06</v>
+        <v>6.088694061176388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.753125</v>
       </c>
       <c r="AH5" t="n">
-        <v>402229.4166212499</v>
+        <v>442381.4120186164</v>
       </c>
     </row>
     <row r="6">
@@ -30639,28 +30639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.8815015681886</v>
+        <v>358.3233424912174</v>
       </c>
       <c r="AB6" t="n">
-        <v>445.8854473227768</v>
+        <v>490.2738053066749</v>
       </c>
       <c r="AC6" t="n">
-        <v>403.330766034446</v>
+        <v>443.4827614318125</v>
       </c>
       <c r="AD6" t="n">
-        <v>325881.5015681886</v>
+        <v>358323.3424912174</v>
       </c>
       <c r="AE6" t="n">
-        <v>445885.4473227768</v>
+        <v>490273.8053066749</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961114269933444e-06</v>
+        <v>6.097773633674551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.744791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>403330.766034446</v>
+        <v>443482.7614318125</v>
       </c>
     </row>
   </sheetData>
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>962.8666437702386</v>
+        <v>1019.173180414106</v>
       </c>
       <c r="AB2" t="n">
-        <v>1317.436620684769</v>
+        <v>1394.477708189989</v>
       </c>
       <c r="AC2" t="n">
-        <v>1191.702318640525</v>
+        <v>1261.390712882092</v>
       </c>
       <c r="AD2" t="n">
-        <v>962866.6437702386</v>
+        <v>1019173.180414106</v>
       </c>
       <c r="AE2" t="n">
-        <v>1317436.620684769</v>
+        <v>1394477.708189989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.710896896091559e-06</v>
+        <v>3.389601747435152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.571875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1191702.318640525</v>
+        <v>1261390.712882092</v>
       </c>
     </row>
     <row r="3">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.5838365597812</v>
+        <v>562.5437250203037</v>
       </c>
       <c r="AB3" t="n">
-        <v>708.1810393684062</v>
+        <v>769.6971422503844</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.5932349094162</v>
+        <v>696.238327270731</v>
       </c>
       <c r="AD3" t="n">
-        <v>517583.8365597811</v>
+        <v>562543.7250203036</v>
       </c>
       <c r="AE3" t="n">
-        <v>708181.0393684063</v>
+        <v>769697.1422503844</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434749984641966e-06</v>
+        <v>4.823687985736147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.726041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>640593.2349094162</v>
+        <v>696238.327270731</v>
       </c>
     </row>
     <row r="4">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.5440995031863</v>
+        <v>467.2427701434864</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.1941635560418</v>
+        <v>639.3021714065243</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.5805451394899</v>
+        <v>578.2880694337179</v>
       </c>
       <c r="AD4" t="n">
-        <v>433544.0995031863</v>
+        <v>467242.7701434864</v>
       </c>
       <c r="AE4" t="n">
-        <v>593194.1635560418</v>
+        <v>639302.1714065243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691651797563636e-06</v>
+        <v>5.332657775784763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.084374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>536580.5451394899</v>
+        <v>578288.0694337179</v>
       </c>
     </row>
     <row r="5">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.0847617334641</v>
+        <v>411.8686837197848</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.3122509262045</v>
+        <v>563.5369034293362</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.9406957501109</v>
+        <v>509.7537322950512</v>
       </c>
       <c r="AD5" t="n">
-        <v>378084.7617334641</v>
+        <v>411868.6837197848</v>
       </c>
       <c r="AE5" t="n">
-        <v>517312.2509262044</v>
+        <v>563536.9034293363</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.825919942138365e-06</v>
+        <v>5.598667690534775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.795833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>467940.695750111</v>
+        <v>509753.7322950512</v>
       </c>
     </row>
     <row r="6">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.1782578297836</v>
+        <v>387.9621798161043</v>
       </c>
       <c r="AB6" t="n">
-        <v>484.6023176046722</v>
+        <v>530.8269701078041</v>
       </c>
       <c r="AC6" t="n">
-        <v>438.352552556106</v>
+        <v>480.1655891010462</v>
       </c>
       <c r="AD6" t="n">
-        <v>354178.2578297836</v>
+        <v>387962.1798161042</v>
       </c>
       <c r="AE6" t="n">
-        <v>484602.3176046722</v>
+        <v>530826.9701078041</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890695674649826e-06</v>
+        <v>5.727000342615575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.665624999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>438352.552556106</v>
+        <v>480165.5891010462</v>
       </c>
     </row>
     <row r="7">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.7493408558102</v>
+        <v>388.5332628421309</v>
       </c>
       <c r="AB7" t="n">
-        <v>485.3836985952867</v>
+        <v>531.6083510984186</v>
       </c>
       <c r="AC7" t="n">
-        <v>439.0593596416514</v>
+        <v>480.8723961865916</v>
       </c>
       <c r="AD7" t="n">
-        <v>354749.3408558102</v>
+        <v>388533.2628421308</v>
       </c>
       <c r="AE7" t="n">
-        <v>485383.6985952867</v>
+        <v>531608.3510984186</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.893368459729182e-06</v>
+        <v>5.732295621949007e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.660416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>439059.3596416514</v>
+        <v>480872.3961865916</v>
       </c>
     </row>
   </sheetData>
